--- a/backtest/bt_report/bs_vaq_rs_m_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_vaq_rs_m_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>250569174.8680612</v>
+        <v>220763911.6073319</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>8129789.707261143</v>
+        <v>46945627.8007319</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>1.505691748680611</v>
+        <v>1.207639116073319</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1227029996452449</v>
+        <v>0.1049304397959867</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>2.505691748680611</v>
+        <v>2.207639116073319</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>74.56877253785694</v>
+        <v>75.05080541369271</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.07455836214442188</v>
+        <v>0.1575679815493945</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.09055956232479162</v>
+        <v>0.09050212171086021</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.8483886358372374</v>
+        <v>0.6725497981511772</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.06215900816803077</v>
+        <v>0.06378785907608633</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.236018813798606</v>
+        <v>0.9542126757427266</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.0814952022012905</v>
+        <v>0.1165732297569405</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.008952527941522926</v>
+        <v>0.009021343946860359</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>-0.3696677774602535</v>
+        <v>-0.4428199002214967</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>-0.05649162804286212</v>
+        <v>-0.07104335600705391</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.07159967615823781</v>
+        <v>0.05362176495131218</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.1444978868934596</v>
+        <v>0.1486547225016651</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.394048731368999</v>
+        <v>1.174824731426383</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>-0.06814733104326556</v>
+        <v>-0.1257983660900364</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.6305774352337449</v>
+        <v>0.6243810374179535</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2801311359848709</v>
+        <v>0.2786420062741838</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.06903670584540582</v>
+        <v>0.05119569052577662</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.1447741681329355</v>
+        <v>0.1553856888459453</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.8579016461306985</v>
+        <v>0.6814134938554018</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.383468183461789</v>
+        <v>1.036645061089509</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.430237128896098</v>
+        <v>1.229837799777572</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03687425222947535</v>
+        <v>0.03634706966976989</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.08030087404527173</v>
+        <v>0.1065358446006921</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.2135380000000014</v>
+        <v>0.2547380000000007</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.09435023029242785</v>
+        <v>0.13214611455348</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.454015040599629</v>
+        <v>3.657668628093317</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>4.874750129458043</v>
+        <v>5.16062876665149</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.4736842105263158</v>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.2160698717304269</v>
+        <v>0.199110890082231</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.4784188772095558</v>
+        <v>-0.4854113682699921</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.204747535058042</v>
+        <v>3.106417667496984</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.055258913159354</v>
+        <v>2.900288107928213</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.3269230769230769</v>
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.02141762781831859</v>
+        <v>-0.02087307336979929</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.2766661064973656</v>
+        <v>0.2216558139268604</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>0.3774801549317979</v>
+        <v>-0.3793938667748097</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.9077447492538752</v>
+        <v>0.0208397601156487</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1216442852840145</v>
+        <v>0.09426099588301394</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.2284245289354221</v>
+        <v>0.1978692865600425</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.818269807165977</v>
+        <v>1.471927696323477</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.426097232536856</v>
+        <v>1.937436253318453</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.02170501829107798</v>
+        <v>-0.07233935908021277</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2914635434306885</v>
+        <v>0.2278913912019823</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.1412744188265943</v>
+        <v>-0.5623250815341412</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.3969046897258053</v>
+        <v>-0.02745004706166679</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3087493606478277</v>
+        <v>0.2067741775856065</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1263463194580387</v>
+        <v>-0.1951117495810333</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.054076976477771</v>
+        <v>1.512217845876436</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.490478298885471</v>
+        <v>0.5018196256161213</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="8">
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.06577508609758068</v>
+        <v>0.1325647903971265</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.399072524104235</v>
+        <v>-0.3609923650040679</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.7049565602732285</v>
+        <v>1.347765073304749</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.298566316224685</v>
+        <v>-0.3799635987477183</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3846153846153846</v>
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.02988715596091565</v>
+        <v>0.05622506858356566</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1371700605863518</v>
+        <v>-0.1134154794976125</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.4455929256921834</v>
+        <v>0.7746439510563294</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.2057996290958597</v>
+        <v>0.6100571216955882</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="10">
@@ -1317,19 +1317,19 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.05457085979554012</v>
+        <v>0.02263600665748534</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2036407496892846</v>
+        <v>0.1672203979843311</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.611223464672685</v>
+        <v>0.7408915096886906</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>2.138896244204593</v>
+        <v>1.165092429518167</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.01218299999999994</v>
+        <v>-0.02070499999999986</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.009594894600923221</v>
+        <v>0.008650100327275423</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02045132082282541</v>
+        <v>0.04712654616579193</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05048192427760512</v>
+        <v>0.03258481933954416</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.002723872988197984</v>
+        <v>0.009521366192923875</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.02258441871008476</v>
+        <v>0.02234211473323833</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.008758534120060002</v>
+        <v>0.003112647728293449</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.04819997305091661</v>
+        <v>0.05909968997239767</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.04697658849026154</v>
+        <v>0.07145949592461487</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.0100136954920238</v>
+        <v>-0.002747187062159595</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.02090659138933959</v>
+        <v>0.03230903123254336</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.01640114599441378</v>
+        <v>0.02805176667680809</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.009503568850750543</v>
+        <v>0.0109461622917657</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.01253967326752004</v>
+        <v>0.01682694098280058</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.005879886925250544</v>
+        <v>0.004113312040319173</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003325765159225558</v>
+        <v>0.003730224448181163</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01760570358028613</v>
+        <v>0.01124502837605257</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.004331455595276701</v>
+        <v>0.001306711306646502</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.05250652546796997</v>
+        <v>0.05199925059059018</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.03323233940761239</v>
+        <v>0.0154482623093104</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01202847058065126</v>
+        <v>0.01101549076487562</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.006356103044762751</v>
+        <v>-0.0166845012196174</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.006666816697320943</v>
+        <v>0.002260949382446364</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.02726434531038557</v>
+        <v>0.018339479313628</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01991373410750708</v>
+        <v>-0.01926085061913674</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.001748372152331479</v>
+        <v>0.002047373190485091</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.009424323262796408</v>
+        <v>0.003965082475602788</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.008594552894432228</v>
+        <v>-0.0002389521545300699</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.003952098771044854</v>
+        <v>0.003559626769575219</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.007117873801588903</v>
+        <v>-0.00840188281383758</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.006503524083698364</v>
+        <v>0.002011840307645896</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.01513214890242387</v>
+        <v>0.003967123774665904</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.01045961791835692</v>
+        <v>-0.01202737041604895</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.000294555890653303</v>
+        <v>0.003498589771003147</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.015730202865466</v>
+        <v>0.00864360127956143</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01280662531506938</v>
+        <v>-0.00103078471756024</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.005816608782260202</v>
+        <v>0.0009996240500549369</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002074096687281646</v>
+        <v>-0.001996580930607283</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.02847623938061661</v>
+        <v>0.03757815482046567</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.02926249197029596</v>
+        <v>0.01337961166872104</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.0109316954205998</v>
+        <v>-0.001065414671278075</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.004238674996682512</v>
+        <v>0.005204794425016424</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.02517759527712227</v>
+        <v>0.03476571127420836</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01358802965403383</v>
+        <v>-0.007898566681715624</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.0001738606950055788</v>
+        <v>-0.000539402082092022</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.007453651265884487</v>
+        <v>0.01118281517617215</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.02560122396476971</v>
+        <v>-0.03434119360462951</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.007814015701537613</v>
+        <v>0.01905181198366579</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.03758521509506607</v>
+        <v>-0.03144822684866266</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.05021334802656963</v>
+        <v>0.04648498345798857</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.01867098060207817</v>
+        <v>-0.02466171332972422</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02327676982229365</v>
+        <v>-0.01288669545651722</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.0003079370623537692</v>
+        <v>9.391117025447926e-05</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.0003442404501039498</v>
+        <v>-0.02038192066720479</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.0004372446065974422</v>
+        <v>-0.01654658573022405</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.03324812125553356</v>
+        <v>0.01832679783632396</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.01321172224896972</v>
+        <v>-0.02630526873696992</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.004755691896944025</v>
+        <v>0.002197384804475844</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1857042970508171</v>
+        <v>0.09231133649162593</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.05914378206985771</v>
+        <v>0.04023036601881369</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.004175279318232805</v>
+        <v>-0.004521095116230889</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.005560751231057259</v>
+        <v>0.0009296799741862483</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.009483682691762807</v>
+        <v>0.008418872654900156</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.009228227396071209</v>
+        <v>-0.009976225375028958</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.008671806936677351</v>
+        <v>0.03284419462124522</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.006037006808933265</v>
+        <v>-0.005407410455660178</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.003846399319221372</v>
+        <v>-0.004617351703133488</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02479107432101879</v>
+        <v>-0.01555416998625969</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.05345543134006747</v>
+        <v>0.05830935762298606</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.02759695938688789</v>
+        <v>0.01505241803430857</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.03437054100054227</v>
+        <v>0.02575730528209808</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.01701878835873105</v>
+        <v>-0.008124118867062435</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.00226577052537591</v>
+        <v>0.01928520991485794</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.008839872469943222</v>
+        <v>0.02030637222646225</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.03411050749585165</v>
+        <v>0.04802951153761792</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.02114880531512586</v>
+        <v>0.00516019902358944</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-4.524429256547169e-05</v>
+        <v>-7.297486187418656e-05</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.004690537216001434</v>
+        <v>-0.009681874954081904</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.009883445229241228</v>
+        <v>-0.01431883051591021</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.0254724573906091</v>
+        <v>0.01485048160198121</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01269135466482951</v>
+        <v>0.01054571308777907</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.001716456920832665</v>
+        <v>0.008528483157090205</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.006459938222878825</v>
+        <v>-0.005273887006570499</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.006448624270181447</v>
+        <v>-0.005307700823783401</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.007675884237584141</v>
+        <v>0.01652926599899818</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02840412320733665</v>
+        <v>0.03713500472206377</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.005448625577088695</v>
+        <v>0.0002381133977851224</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.0001032788914159255</v>
+        <v>-0.003714986600010572</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01503192780441509</v>
+        <v>0.0115547345990541</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.02496512710214815</v>
+        <v>-0.0217100950073289</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.008568268689730152</v>
+        <v>0.01184318496929881</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01452550460064828</v>
+        <v>0.007051729304945464</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.001232984310843177</v>
+        <v>-0.0008932278059498033</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.004439758757255108</v>
+        <v>0.001525403550998616</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.0008928416672964179</v>
+        <v>0.000997656870789676</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.0005026201716260559</v>
+        <v>-0.03152262959963004</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01060291297261118</v>
+        <v>-0.009655052645489604</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02129056730328971</v>
+        <v>0.01125320604847135</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.05121064186683899</v>
+        <v>0.04948542796205824</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.004152787939944669</v>
+        <v>0.002106219748624349</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.05262790463456057</v>
+        <v>0.04366373019262326</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.02154643358295483</v>
+        <v>-0.02246209547418299</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.04484980927177795</v>
+        <v>-0.01927813561241509</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.0941323984344864</v>
+        <v>0.07551319248901489</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05611297689778227</v>
+        <v>-0.04985107581117709</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.05651672709467437</v>
+        <v>-0.05672008322863586</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02576732604808796</v>
+        <v>0.01992918123651322</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.006185806861204846</v>
+        <v>0.01664194006469688</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1061612000480017</v>
+        <v>0.1320780634312197</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1230757846090176</v>
+        <v>-0.1341351307343414</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.1144542111003664</v>
+        <v>-0.104130164737934</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.1693378691574799</v>
+        <v>-0.1592794606825199</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.1861057115335002</v>
+        <v>-0.1848150524521582</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.1983091060867328</v>
+        <v>-0.1948272098953255</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1948577553461615</v>
+        <v>0.1926393395550656</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.09169658216479659</v>
+        <v>0.09213107216799199</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.240639024982356</v>
+        <v>0.2330463445158251</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06501553945774707</v>
+        <v>-0.06801052178769362</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.1268114915508292</v>
+        <v>-0.1271923795037176</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.05435011533115019</v>
+        <v>-0.07142095114259517</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.008156748433147398</v>
+        <v>-0.009039048388835291</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.3003049970393845</v>
+        <v>0.2878837004476413</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.03916712153616775</v>
+        <v>0.04732824352800136</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1494929144421233</v>
+        <v>-0.1571543126397107</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0200228116193768</v>
+        <v>0.02067493175885859</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01699737401469681</v>
+        <v>-0.01670478874399073</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.02639788612443794</v>
+        <v>-0.03250933597977657</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.05460069147211244</v>
+        <v>0.04506988753602936</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03009039197455532</v>
+        <v>-0.03046921910524247</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.01086306832956252</v>
+        <v>0.009448321266742221</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.0005480325310567302</v>
+        <v>-0.003925280659480834</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.003128298095343762</v>
+        <v>-0.007955768270991426</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.09652017196485407</v>
+        <v>0.09498759600146478</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03654285419800418</v>
+        <v>0.04050049266435574</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.006432969029976032</v>
+        <v>-0.01336414236402594</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.02232716473262042</v>
+        <v>0.00825450096325131</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03507086283829453</v>
+        <v>0.0299815355168338</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.0452522805809481</v>
+        <v>0.04533631062814236</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.003910615161247466</v>
+        <v>0.004969983000057798</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.07289937510485522</v>
+        <v>0.05678863597480266</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.05238000789627906</v>
+        <v>-0.06362470554229005</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.005568378557698206</v>
+        <v>-0.005138542770298127</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.02186811198014627</v>
+        <v>0.03130306196833921</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03976181618133112</v>
+        <v>0.04565976012261208</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007831159904318374</v>
+        <v>0.007451434811121871</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01482872461707618</v>
+        <v>0.0187372615137662</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.04253583824094864</v>
+        <v>-0.05093443558913446</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07502173033292148</v>
+        <v>-0.0643499659164759</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.009399088525090082</v>
+        <v>0.01598834460829779</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.08491139872955267</v>
+        <v>0.08155436436562491</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.05723589215842018</v>
+        <v>0.05112420502872816</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.0007140705137342884</v>
+        <v>0.01174047457113514</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.07999529774982883</v>
+        <v>0.07976656794615078</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01442727645650854</v>
+        <v>-0.006330539134376978</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.0935414252661384</v>
+        <v>0.0757166764671735</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01167811914290062</v>
+        <v>-0.02602462870826416</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.04741749678794127</v>
+        <v>0.03326132200900189</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.02079198844107921</v>
+        <v>0.01818395848581722</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.05330268184710374</v>
+        <v>-0.1300615573950408</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.04442187452053115</v>
+        <v>-0.06125120043013155</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.04377799077526667</v>
+        <v>0.03453239175382605</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.07517927887574016</v>
+        <v>0.08119542868499918</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01269357569303187</v>
+        <v>-0.01367015840246366</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.04930795903733809</v>
+        <v>-0.04974519419140844</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01995454886450665</v>
+        <v>0.00446718483133357</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.005883244746687222</v>
+        <v>-0.01666538534707218</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.0317784119616058</v>
+        <v>-0.03252073306693315</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02242888979020186</v>
+        <v>-0.01283030429486076</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.02604893141342501</v>
+        <v>-0.02120821414469276</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.04384008341395795</v>
+        <v>-0.0550429147811855</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1113766635853102</v>
+        <v>-0.05507126790552463</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.07655006575819212</v>
+        <v>0.08453492534531337</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09789976824371349</v>
+        <v>-0.08237022519093928</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.001737476571789687</v>
+        <v>0.009270930021192392</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.1174992659557484</v>
+        <v>-0.1053530625041814</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.1207685556691561</v>
+        <v>-0.1346940589521174</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.01890897456053198</v>
+        <v>0.01887195644960737</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.04808905217120985</v>
+        <v>0.04311928939648157</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04486547957547804</v>
+        <v>-0.04902879421364703</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.03051449900848913</v>
+        <v>0.02029900276237773</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.1055223093997476</v>
+        <v>-0.1075039072043384</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.0599552357062364</v>
+        <v>-0.05021805619220243</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.06067018270774516</v>
+        <v>0.06181657714623645</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.03682524015922173</v>
+        <v>0.03792324321726026</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1046041077846023</v>
+        <v>-0.09659770799732892</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.0433047760239752</v>
+        <v>-0.03482806132527927</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.05786143254479037</v>
+        <v>-0.05180775701340734</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.0001608322916359928</v>
+        <v>-0.003265110830128926</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08083318190433397</v>
+        <v>0.07741548898300787</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.03812493881365664</v>
+        <v>-0.03490674140693895</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02527205421949552</v>
+        <v>-0.02206158590951268</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.02879417997403411</v>
+        <v>-0.03585840658803197</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.05061934536519574</v>
+        <v>0.04837037901471808</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1311247651433443</v>
+        <v>0.137778575124462</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.005182825240748867</v>
+        <v>0.005288738673321358</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.07062724735029891</v>
+        <v>0.03706623161125489</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1189232750847489</v>
+        <v>0.1199912521151032</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01960791806779449</v>
+        <v>-0.02936230052338462</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.1040452094514298</v>
+        <v>-0.1058391591280842</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.006043642994348897</v>
+        <v>0.01230265068291803</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_vaq_rs_m_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_vaq_rs_m_ind/single_run/summary.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>399006.XSHE</t>
+          <t>000300.XSHG</t>
         </is>
       </c>
       <c r="C6" s="13" t="n"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="C7" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>220763911.6073319</v>
+        <v>193508144.62615</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>46945627.8007319</v>
+        <v>32513115.99475</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>1.207639116073319</v>
+        <v>0.9350814462615</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1049304397959867</v>
+        <v>0.08673612839402067</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>2.207639116073319</v>
+        <v>1.9350814462615</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>75.05080541369271</v>
+        <v>65.56223557661384</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.1575679815493945</v>
+        <v>0.2813627786717909</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.09050212171086021</v>
+        <v>0.1003524468417371</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.6725497981511772</v>
+        <v>0.4504067314794332</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.06378785907608633</v>
+        <v>0.07085727292701717</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>0.9542126757427266</v>
+        <v>0.6378938351819672</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.1165732297569405</v>
+        <v>0.140900701951323</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.009021343946860359</v>
+        <v>0.01012189673464471</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>-0.4428199002214967</v>
+        <v>-0.3138888984805973</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>-0.07104335600705391</v>
+        <v>-0.04635727455688199</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.05362176495131218</v>
+        <v>0.0334312055954681</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.1486547225016651</v>
+        <v>0.1964687605620674</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.174824731426383</v>
+        <v>0.7686298824939306</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>-0.1257983660900364</v>
+        <v>-0.1275419244885399</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.6243810374179535</v>
+        <v>0.5161652859602761</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2786420062741838</v>
+        <v>0.2063932743088682</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.05119569052577662</v>
+        <v>0.03115033555590432</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.1553856888459453</v>
+        <v>0.2119570125574067</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.6814134938554018</v>
+        <v>0.449737642039408</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.036645061089509</v>
+        <v>0.6821589150871119</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.229837799777572</v>
+        <v>0.7873653094208223</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03634706966976989</v>
+        <v>0.02632490753681402</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1065358446006921</v>
+        <v>0.1350458382589789</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.2547380000000007</v>
+        <v>0.2033880000000014</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.13214611455348</v>
+        <v>-0.2553642345251139</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.657668628093317</v>
+        <v>3.482429559824665</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.16062876665149</v>
+        <v>1.103831004206543</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.199110890082231</v>
+        <v>0.1480686195973375</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.4854113682699921</v>
+        <v>-0.06001374210707677</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.106417667496984</v>
+        <v>4.465702206876574</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>2.900288107928213</v>
+        <v>5.071983947880707</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.02087307336979929</v>
+        <v>0.02915374660169718</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.2216558139268604</v>
+        <v>0.1077803501475831</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3793938667748097</v>
+        <v>1.57576937805612</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.0208397601156487</v>
+        <v>1.968505946989696</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.09426099588301394</v>
+        <v>0.0673861518444288</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.1978692865600425</v>
+        <v>-0.1297926652889586</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.471927696323477</v>
+        <v>1.22263211422797</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.937436253318453</v>
+        <v>0.1184678777859587</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.07233935908021277</v>
+        <v>-0.05968321030426432</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2278913912019823</v>
+        <v>0.2172547431822011</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.5623250815341412</v>
+        <v>-0.4375264848833631</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.02745004706166679</v>
+        <v>0.01053872607581053</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.2067741775856065</v>
+        <v>0.3057696673776752</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1951117495810333</v>
+        <v>-0.05545608001020145</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.512217845876436</v>
+        <v>1.685754069485094</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.5018196256161213</v>
+        <v>0.7706722635310849</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1325647903971265</v>
+        <v>0.0460534612542485</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3609923650040679</v>
+        <v>-0.2005422225020285</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.347765073304749</v>
+        <v>0.4131010855560407</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-0.3799635987477183</v>
+        <v>-0.8505978992296047</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.05622506858356566</v>
+        <v>-0.04796125300819182</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1134154794976125</v>
+        <v>-0.01864075184241455</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.7746439510563294</v>
+        <v>-0.4845118388484483</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.6100571216955882</v>
+        <v>-0.4310861215127756</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -1317,19 +1317,19 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.02263600665748534</v>
+        <v>0.04273639218610865</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1672203979843311</v>
+        <v>0.1272636483519423</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.7408915096886906</v>
+        <v>1.703625221695967</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.165092429518167</v>
+        <v>2.110644873914011</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.02070499999999986</v>
+        <v>-0.00783099999999981</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.008650100327275423</v>
+        <v>0.00942480565306969</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.04712654616579193</v>
+        <v>0.01885533988337773</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.03258481933954416</v>
+        <v>0.04399923951689755</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.009521366192923875</v>
+        <v>0.001441846013473969</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.02234211473323833</v>
+        <v>0.01134006413350863</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.003112647728293449</v>
+        <v>0.002625737416990237</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.05909968997239767</v>
+        <v>0.04949859859045591</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.07145949592461487</v>
+        <v>0.05996050431862843</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.002747187062159595</v>
+        <v>0.01559347442387748</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.03230903123254336</v>
+        <v>0.02329413747705877</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.02805176667680809</v>
+        <v>0.02071849047913799</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0109461622917657</v>
+        <v>0.008925738700057195</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.01682694098280058</v>
+        <v>0.003055297388749434</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.004113312040319173</v>
+        <v>0.004943252452661362</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003730224448181163</v>
+        <v>0.003926830620959443</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01124502837605257</v>
+        <v>0.01004261339659629</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.001306711306646502</v>
+        <v>0.004426348433459015</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.05199925059059018</v>
+        <v>0.02145187564945439</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.0154482623093104</v>
+        <v>0.01189003329564753</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01101549076487562</v>
+        <v>0.01089204103941954</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0166845012196174</v>
+        <v>0.002409574021477345</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.002260949382446364</v>
+        <v>0.003834209087869356</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.018339479313628</v>
+        <v>0.006004843869024334</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01926085061913674</v>
+        <v>-0.00424222360300841</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.002047373190485091</v>
+        <v>0.002640335596205023</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.003965082475602788</v>
+        <v>0.004488997015690499</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.0002389521545300699</v>
+        <v>0.006552252969724393</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.003559626769575219</v>
+        <v>0.005461264335819171</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.00840188281383758</v>
+        <v>-0.0005001863370226456</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.002011840307645896</v>
+        <v>0.006105327112882142</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.003967123774665904</v>
+        <v>0.001651227421724633</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.01202737041604895</v>
+        <v>-0.00554630782358112</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.003498589771003147</v>
+        <v>-0.0003425115166859616</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.00864360127956143</v>
+        <v>0.008239978105523127</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.00103078471756024</v>
+        <v>0.00394745564607546</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.0009996240500549369</v>
+        <v>0.003191699357490085</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.001996580930607283</v>
+        <v>-0.002296781595816144</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.03757815482046567</v>
+        <v>0.01865335563874937</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01337961166872104</v>
+        <v>0.02449364974401314</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.001065414671278075</v>
+        <v>0.003662499109993611</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005204794425016424</v>
+        <v>0.001863020891690992</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.03476571127420836</v>
+        <v>0.01726343430305999</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.007898566681715624</v>
+        <v>-0.01268605256310207</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.000539402082092022</v>
+        <v>-2.372011841622612e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01118281517617215</v>
+        <v>0.006530435281086655</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03434119360462951</v>
+        <v>-0.02916192603435264</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01905181198366579</v>
+        <v>0.007298585932690393</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.03144822684866266</v>
+        <v>-0.04107906344073098</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.04648498345798857</v>
+        <v>0.06285371225527658</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.02466171332972422</v>
+        <v>-0.02689090863711641</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01288669545651722</v>
+        <v>-0.035198909272534</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>9.391117025447926e-05</v>
+        <v>1.609032971172653e-05</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.02038192066720479</v>
+        <v>2.868230015318218e-05</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.01654658573022405</v>
+        <v>6.505798555278552e-05</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.01832679783632396</v>
+        <v>0.02853271609213004</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.02630526873696992</v>
+        <v>-0.02944346925992447</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.002197384804475844</v>
+        <v>0.0018408166583046</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.09231133649162593</v>
+        <v>0.1474521773980897</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.04023036601881369</v>
+        <v>0.08088325383642458</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.004521095116230889</v>
+        <v>0.009019769729125215</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.0009296799741862483</v>
+        <v>-0.01026151206398329</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.008418872654900156</v>
+        <v>0.01165937261766992</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.009976225375028958</v>
+        <v>-0.009158262615008517</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.03284419462124522</v>
+        <v>0.009338681418969319</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.005407410455660178</v>
+        <v>0.0142922764107396</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.004617351703133488</v>
+        <v>-0.005222107398223819</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01555416998625969</v>
+        <v>-0.03807755793833756</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.05830935762298606</v>
+        <v>0.07159213501496353</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.01505241803430857</v>
+        <v>0.03957835039762458</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.02575730528209808</v>
+        <v>-0.04385516171577997</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.008124118867062435</v>
+        <v>-0.02147563030472843</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01928520991485794</v>
+        <v>0.005409219839764612</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02030637222646225</v>
+        <v>0.004252400172312987</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.04802951153761792</v>
+        <v>0.02503368826686514</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.00516019902358944</v>
+        <v>0.02584354838881642</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-7.297486187418656e-05</v>
+        <v>0.01495917484971154</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.009681874954081904</v>
+        <v>-0.008332949326451677</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01431883051591021</v>
+        <v>-0.01306423174128613</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.01485048160198121</v>
+        <v>0.01648014765274808</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01054571308777907</v>
+        <v>0.00321510807436276</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.008528483157090205</v>
+        <v>-0.01687767825858133</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.005273887006570499</v>
+        <v>-0.05858548645819539</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.005307700823783401</v>
+        <v>-0.01390949791335316</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.01652926599899818</v>
+        <v>-0.007102316642467632</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.03713500472206377</v>
+        <v>0.03808222776531656</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.0002381133977851224</v>
+        <v>-0.02755573782919019</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.003714986600010572</v>
+        <v>0.01278558377479233</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0115547345990541</v>
+        <v>0.01330472340661149</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.0217100950073289</v>
+        <v>-0.01697280820491787</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01184318496929881</v>
+        <v>0.01162286504624044</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.007051729304945464</v>
+        <v>0.01437099950763221</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.0008932278059498033</v>
+        <v>0.005332819048197157</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.001525403550998616</v>
+        <v>0.0003432533737979249</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.000997656870789676</v>
+        <v>0.001002473054160236</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.03152262959963004</v>
+        <v>0.0006823550937158362</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.009655052645489604</v>
+        <v>-0.009641642171335674</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.01125320604847135</v>
+        <v>0.01957690258898603</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.04948542796205824</v>
+        <v>0.03288504533829872</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.002106219748624349</v>
+        <v>-0.002231607670171609</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.04366373019262326</v>
+        <v>0.02414772561673506</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.02246209547418299</v>
+        <v>0.00915397765820658</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.01927813561241509</v>
+        <v>0.0143188062283699</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.07551319248901489</v>
+        <v>-0.03913630368847754</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.04985107581117709</v>
+        <v>0.005727227285290626</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.05672008322863586</v>
+        <v>-0.03649435150890001</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01992918123651322</v>
+        <v>-0.02151239942413274</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.01664194006469688</v>
+        <v>-0.06475696647889673</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1320780634312197</v>
+        <v>-0.1663700546748642</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1341351307343414</v>
+        <v>0.03389953906557452</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.104130164737934</v>
+        <v>-0.01914127813848154</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.1592794606825199</v>
+        <v>-0.1035330706868968</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.1848150524521582</v>
+        <v>-0.1439321992662992</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.1948272098953255</v>
+        <v>-0.02711248074791572</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1926393395550656</v>
+        <v>0.06107437570037955</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.09213107216799199</v>
+        <v>0.1380038437822058</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2330463445158251</v>
+        <v>0.1120554729978835</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06801052178769362</v>
+        <v>0.04632510425198078</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.1271923795037176</v>
+        <v>-0.07769546513996561</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.07142095114259517</v>
+        <v>-0.003579420767455876</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.009039048388835291</v>
+        <v>-0.03853838172741064</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2878837004476413</v>
+        <v>0.2414322564490943</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04732824352800136</v>
+        <v>0.02063767862264898</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1571543126397107</v>
+        <v>-0.1045720531290072</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.02067493175885859</v>
+        <v>0.01377857292563855</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01670478874399073</v>
+        <v>-0.004219065807903988</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.03250933597977657</v>
+        <v>0.007979088353216479</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.04506988753602936</v>
+        <v>-0.0103918845275599</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03046921910524247</v>
+        <v>-0.03351244840001877</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.009448321266742221</v>
+        <v>0.02141599415401108</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.003925280659480834</v>
+        <v>-0.01948466036555352</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.007955768270991426</v>
+        <v>-0.05616902045055616</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.09498759600146478</v>
+        <v>0.06135132291610956</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.04050049266435574</v>
+        <v>-0.023725003837618</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.01336414236402594</v>
+        <v>-0.01116885234333176</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.00825450096325131</v>
+        <v>0.002559545111542549</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.0299815355168338</v>
+        <v>0.007538946852122752</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04533631062814236</v>
+        <v>-0.01820159183454151</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.004969983000057798</v>
+        <v>-0.0303691659433929</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.05678863597480266</v>
+        <v>0.004472199273283017</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.06362470554229005</v>
+        <v>-0.01916966978165435</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.005138542770298127</v>
+        <v>-0.001862880262629374</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.03130306196833921</v>
+        <v>-0.02617202091890558</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.04565976012261208</v>
+        <v>-0.01355004537431381</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007451434811121871</v>
+        <v>-0.007687746677345841</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.0187372615137662</v>
+        <v>-0.05162017553121967</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05093443558913446</v>
+        <v>0.0274158271645617</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.0643499659164759</v>
+        <v>0.03877055584549449</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.01598834460829779</v>
+        <v>-0.006592310977228455</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.08155436436562491</v>
+        <v>0.04902194735508925</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.05112420502872816</v>
+        <v>0.05134332225965244</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.01174047457113514</v>
+        <v>-0.04034314982406162</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.07976656794615078</v>
+        <v>0.04948876990813633</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.006330539134376978</v>
+        <v>-0.03325331515784113</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.0757166764671735</v>
+        <v>0.07961299761983809</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02602462870826416</v>
+        <v>0.02178574407247269</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.03326132200900189</v>
+        <v>0.02197962113354879</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.01818395848581722</v>
+        <v>-0.05946604058904981</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.1300615573950408</v>
+        <v>0.001374351192263035</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.06125120043013155</v>
+        <v>0.02440477809769259</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.03453239175382605</v>
+        <v>-0.002659800653385225</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.08119542868499918</v>
+        <v>0.05986446011952218</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01367015840246366</v>
+        <v>-0.04189196904196313</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.04974519419140844</v>
+        <v>-0.01288120240122204</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.00446718483133357</v>
+        <v>0.01664532699520849</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.01666538534707218</v>
+        <v>0.01053987137939161</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.03252073306693315</v>
+        <v>-0.02448797726078777</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01283030429486076</v>
+        <v>-0.0241111680285051</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.02120821414469276</v>
+        <v>0.001258380283323479</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.0550429147811855</v>
+        <v>0.06319169217526666</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.05507126790552463</v>
+        <v>-0.03082809599890146</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.08453492534531337</v>
+        <v>0.0397279078555175</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08237022519093928</v>
+        <v>-0.05440273857970079</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.009270930021192392</v>
+        <v>0.01571881721563062</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.1053530625041814</v>
+        <v>-0.049223147862554</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.1346940589521174</v>
+        <v>-0.09658917953799195</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.01887195644960737</v>
+        <v>-0.01249626893700495</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.04311928939648157</v>
+        <v>0.03871917394964774</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04902879421364703</v>
+        <v>-0.03750005998140049</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02029900276237773</v>
+        <v>-0.03907197491148873</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.1075039072043384</v>
+        <v>-0.04656435434558703</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.05021805619220243</v>
+        <v>-0.04423457259993357</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.06181657714623645</v>
+        <v>-0.05816219413697499</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.03792324321726026</v>
+        <v>0.03650438450111904</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.09659770799732892</v>
+        <v>-0.02285031573991847</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.03482806132527927</v>
+        <v>-0.003524756082945113</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.05180775701340734</v>
+        <v>-0.008490221153871658</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.003265110830128926</v>
+        <v>0.09579801940813626</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.07741548898300787</v>
+        <v>0.01147403449599627</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.03490674140693895</v>
+        <v>-0.03031538913822707</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02206158590951268</v>
+        <v>0.002312218263911925</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03585840658803197</v>
+        <v>0.029876232821898</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.04837037901471808</v>
+        <v>-0.01802367979606745</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.137778575124462</v>
+        <v>0.08057388796231768</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.005288738673321358</v>
+        <v>-0.004398013057202554</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.03706623161125489</v>
+        <v>0.07629100639857556</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1199912521151032</v>
+        <v>0.03446784146067983</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.02936230052338462</v>
+        <v>-0.001581732660053348</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.1058391591280842</v>
+        <v>-0.05914082602817838</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01230265068291803</v>
+        <v>0.00184706701217241</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
